--- a/biology/Botanique/Suillus_granulatus/Suillus_granulatus.xlsx
+++ b/biology/Botanique/Suillus_granulatus/Suillus_granulatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bolet granulé, Pissacan, Vachette
-Suillus granulatus, le Bolet granulé, Pissacan, ou encore Vachette[1], anciennement Boletus granulatus, est une espèce de champignons basidiomycètes du genre Suillus. Il est caractérisé par son pied blanchâtre orné de granulations, ses pores exsudant parfois des gouttelettes laiteuses et son habitat exclusivement sous pins.
+Suillus granulatus, le Bolet granulé, Pissacan, ou encore Vachette, anciennement Boletus granulatus, est une espèce de champignons basidiomycètes du genre Suillus. Il est caractérisé par son pied blanchâtre orné de granulations, ses pores exsudant parfois des gouttelettes laiteuses et son habitat exclusivement sous pins.
 </t>
         </is>
       </c>
@@ -512,12 +524,49 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Suillus granulatus (L.) Roussel, 1806[2].
-L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus granulatus L., 1753[2].
-Synonymes
-Suillus granulatus a pour synonymes[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Suillus granulatus (L.) Roussel, 1806.
+L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus granulatus L., 1753.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Suillus_granulatus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Suillus_granulatus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Suillus granulatus a pour synonymes :
 Agaricus granulatus (L.) Lam., 1783
 Boletus granulatus L., 1753
 Boletus lactifluus With., 1796
@@ -526,86 +575,265 @@
 Suillus granulatus var. granulatus (L.) Roussel, 1806
 Viscipellis granulata (L.) Quél., 1886
 Viscipellis granulata (Linnaeus) Quélet, 1886
-Phylogénie
-Suillus granulatus a été décrit pour la première fois par Carl Linnaeus en 1753 comme une espèce de Boletus. Le naturaliste français Henri François Anne de Roussel lui a donné son nom actuel lorsqu'il l'a transféré au genre Suillus en 1796.
-Étymologie
-L'épithète spécifique granulatus, signifiant "granuleux", fait référence aux granulations ornant le pied de cette espèce.
-Publication originale
-H.F.A. Roussel, Flore du Calvados et terrains adjacents, composée suivant la méthode de Jussieu, 1796, p. 1-268
-Noms vulgaires et vernaculaires
-Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Bolet granulé[3], bolet beurré[4], bolet granuleux[4], bolet vachette[4], vachette[4].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Suillus_granulatus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Suillus_granulatus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Suillus granulatus a été décrit pour la première fois par Carl Linnaeus en 1753 comme une espèce de Boletus. Le naturaliste français Henri François Anne de Roussel lui a donné son nom actuel lorsqu'il l'a transféré au genre Suillus en 1796.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Suillus_granulatus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Suillus_granulatus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique granulatus, signifiant "granuleux", fait référence aux granulations ornant le pied de cette espèce.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Suillus_granulatus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Suillus_granulatus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">H.F.A. Roussel, Flore du Calvados et terrains adjacents, composée suivant la méthode de Jussieu, 1796, p. 1-268
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Suillus_granulatus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Suillus_granulatus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Noms vulgaires et vernaculaires</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Bolet granulé, bolet beurré, bolet granuleux, bolet vachette, vachette.
 Suillus granulatus porte aussi le nom vernaculaire populaire de "Pissacan", du Provençal Pissa-can, signifiant une plante ou un champignon sur lequel les chiens urinent, en réfèrence à l'aspect gluant et à la comestibilité médiocre de cette espèce (et des espèces proches). Ce terme est souvent utilisé de façon vague et inexacte, il est aussi utilisé pour faire réfèrence à n'importe quel Suillus de la section Granulati (Suillus granulatus, Suillus collinitus, Suillus bellinii, Suillus mediterraneensis), ou encore à n'importe quelle espèce du genre Suillus, c'est-à-dire la plupart des bolets à l'aspect gluant et flasque. Néanmoins, il s'agit du nom sous lequel cette espèce et ses proches sont recherchées dans le Sud de la France à des fins de consommation.
 Suillus granulatus est parfois aussi nommé à tort "Cèpe des pins", mais le Cèpe des pins est une tout autre espèce ; Boletus pinophilus.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Suillus_granulatus</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Suillus_granulatus</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Suillus_granulatus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Suillus_granulatus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Les bolets sont des champignons dont l’hyménophore, constitué de tubes et terminés par des pores, se sépare facilement de la chair du chapeau. Ce chapeau d'abord rond, recouvert d'une cuticule, devient convexe à mesure qu’il vieillit. Ils ont un pied (stipe) central assez épais et une chair compacte. Les caractéristiques de Suillus granulatus, le Bolet granulé, sont les suivantes :
-Son chapeau mesure 4 à 12 cm, il est visqueux, de couleur brun-roux à brun orangé ou jaune ochracé[5].
-L'hyménophore présente des tubes jaune clair puis jaunes et enfin jaune verdâtre. Ses pores sont fins à moyens (jusqu'à 1 mm de diamètre) ; les jeunes sujets pleurent des gouttelettes opalescentes[5].
-Son stipe mesure 4 à 10 cm x 1 à 3 cm, il est blanchâtre puis jaune clair, à base teintée de roussâtre, et à sommet couvert de granulations blanchâtres puis brunes ou rousses[5].
-La chair est blanche dans le chapeau, jaune dans le pied. Sa saveur est douce et son odeur est faible, agréable[5].
-Son mycélium est blanc[5]. Sa sporée est brun orange à reflet olive[6].
-Caractéristiques microscopiques
-Ses spores sont elliptiques fusoïdes, lisses, brun jaunâtre, mesurant 7 à 10 µm x 3,5 à 4,5 µm. Ses basides sont tétrasporiques, non bouclées. Ses cheilocystides sont clavées, brunes, fasciculées, mesurant 45 à 60 µm x 9 à 12 µm. Ses pleurocystides sont absentes[6].
+Son chapeau mesure 4 à 12 cm, il est visqueux, de couleur brun-roux à brun orangé ou jaune ochracé.
+L'hyménophore présente des tubes jaune clair puis jaunes et enfin jaune verdâtre. Ses pores sont fins à moyens (jusqu'à 1 mm de diamètre) ; les jeunes sujets pleurent des gouttelettes opalescentes.
+Son stipe mesure 4 à 10 cm x 1 à 3 cm, il est blanchâtre puis jaune clair, à base teintée de roussâtre, et à sommet couvert de granulations blanchâtres puis brunes ou rousses.
+La chair est blanche dans le chapeau, jaune dans le pied. Sa saveur est douce et son odeur est faible, agréable.
+Son mycélium est blanc. Sa sporée est brun orange à reflet olive.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Suillus_granulatus</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Suillus_granulatus</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Suillus_granulatus</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Suillus_granulatus</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Caractéristiques microscopiques</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses spores sont elliptiques fusoïdes, lisses, brun jaunâtre, mesurant 7 à 10 µm x 3,5 à 4,5 µm. Ses basides sont tétrasporiques, non bouclées. Ses cheilocystides sont clavées, brunes, fasciculées, mesurant 45 à 60 µm x 9 à 12 µm. Ses pleurocystides sont absentes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Suillus_granulatus</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Suillus_granulatus</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Variétés et formes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Suillus granulatus f. marchandii, méridional en sol calcaire, se distingue par son chapeau plus brun, ses pores hexagonaux plus grands et sa base du stipe brun sombre[6].
-Suillus granulatus var. flavovirens, chapeau d'un magnifique jaune orangé[6].</t>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Suillus granulatus f. marchandii, méridional en sol calcaire, se distingue par son chapeau plus brun, ses pores hexagonaux plus grands et sa base du stipe brun sombre.
+Suillus granulatus var. flavovirens, chapeau d'un magnifique jaune orangé.</t>
         </is>
       </c>
     </row>
